--- a/OpenCartAuto/src/main/resources/TestData/Data.xlsx
+++ b/OpenCartAuto/src/main/resources/TestData/Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shweta Gadave\git\OpenCartAuto\OpenCartAuto\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BFCEE5-E004-4B26-8D86-F22762F6E08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA01FDF-8CC5-444D-9E3A-BDF4A504637C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcred" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcred" sheetId="2" r:id="rId2"/>
+    <sheet name="ProductDeatils" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>email</t>
   </si>
@@ -44,6 +45,36 @@
   </si>
   <si>
     <t>xyzabc123</t>
+  </si>
+  <si>
+    <t>iMac</t>
+  </si>
+  <si>
+    <t>Existing Product Name</t>
+  </si>
+  <si>
+    <t>Non Existing</t>
+  </si>
+  <si>
+    <t>Fitbit</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Text In product Description</t>
+  </si>
+  <si>
+    <t>iLife</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Parent Category</t>
+  </si>
+  <si>
+    <t>Desktops</t>
   </si>
 </sst>
 </file>
@@ -412,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A3D68C-933F-4D48-8778-19C866CB0516}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -462,4 +493,65 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6C598D-0918-46CC-A59A-826C24167033}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OpenCartAuto/src/main/resources/TestData/Data.xlsx
+++ b/OpenCartAuto/src/main/resources/TestData/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shweta Gadave\git\OpenCartAuto\OpenCartAuto\src\main\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shweta Gadave\git\OpenCartAuto\OpenCartAuto\OpenCartAuto\OpenCartAuto\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA01FDF-8CC5-444D-9E3A-BDF4A504637C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEA891A-965B-4D15-8C35-89B2559F43C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>email</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Desktops</t>
+  </si>
+  <si>
+    <t>Pc</t>
+  </si>
+  <si>
+    <t>SortValue</t>
+  </si>
+  <si>
+    <t>Name (A - Z)</t>
   </si>
 </sst>
 </file>
@@ -497,10 +506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6C598D-0918-46CC-A59A-826C24167033}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,7 +521,7 @@
     <col min="5" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -528,8 +537,11 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -540,13 +552,16 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
